--- a/doc/CS1/Task10/scrum_v02_blau.xlsx
+++ b/doc/CS1/Task10/scrum_v02_blau.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1aeccb9c2213036f/DITTP2/BFH/Semester 3 HS/VGJ1 - BTX8081 - Software Engineering and Design/ch.bfh.btx8081.w2016.blue/doc/CS1/Task10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasca_000\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -73,12 +73,6 @@
     <t>UI, Controller</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Main Window</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>Remaining Ressources</t>
   </si>
   <si>
-    <t>Time of Record</t>
-  </si>
-  <si>
     <t>Fabian Kammermann</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>User gets standing data of patients</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>As a user, I want to log in with my username and password</t>
   </si>
   <si>
@@ -193,9 +181,6 @@
     <t>Logout</t>
   </si>
   <si>
-    <t>Schedul view</t>
-  </si>
-  <si>
     <t>clock for schedule view</t>
   </si>
   <si>
@@ -205,12 +190,6 @@
     <t>display information about the patient</t>
   </si>
   <si>
-    <t>setting medicament preparation ready</t>
-  </si>
-  <si>
-    <t>setting status medicament apply</t>
-  </si>
-  <si>
     <t>synchronize</t>
   </si>
   <si>
@@ -226,12 +205,6 @@
     <t>As a user, I want to have an option to update data</t>
   </si>
   <si>
-    <t>As a user, I want to inform co-workers if a patient behaves angrily</t>
-  </si>
-  <si>
-    <t>As a user, I want to check medicamentation application</t>
-  </si>
-  <si>
     <t>As a user, I want to see all information about patients diagnosis</t>
   </si>
   <si>
@@ -241,13 +214,55 @@
     <t>As a user, I want to get important information about the patients identity</t>
   </si>
   <si>
-    <t>testdatabase</t>
-  </si>
-  <si>
-    <t>setting  up a database with all relevant information and normalized relations between tables</t>
-  </si>
-  <si>
-    <t>Classes</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>status medication preparation</t>
+  </si>
+  <si>
+    <t>status medications</t>
+  </si>
+  <si>
+    <t>As a user, I want to inform co-workers if a patient behaves aggressively</t>
+  </si>
+  <si>
+    <t>As a user, I want to check medication</t>
+  </si>
+  <si>
+    <t>testdatabase, based on the uml class diagramm, filled with exampledata</t>
+  </si>
+  <si>
+    <t>Implementing Associations</t>
+  </si>
+  <si>
+    <t>Schedule UI</t>
+  </si>
+  <si>
+    <t>Java Classes skeleton</t>
+  </si>
+  <si>
+    <t>Associations</t>
+  </si>
+  <si>
+    <t>Uml to Java classes</t>
+  </si>
+  <si>
+    <t>Getter methods</t>
+  </si>
+  <si>
+    <t>JDBC - connector between DB and JVM</t>
+  </si>
+  <si>
+    <t>JPA Classes, Database</t>
+  </si>
+  <si>
+    <t>Controller, JPA Classes</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Schedule view</t>
   </si>
 </sst>
 </file>
@@ -679,7 +694,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -693,63 +708,63 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +780,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -794,10 +809,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>13</v>
@@ -811,16 +826,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -828,16 +846,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -845,170 +866,208 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
         <v>67</v>
       </c>
       <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1"/>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
+      <c r="B15" t="s">
+        <v>63</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
       <c r="H16" s="1"/>
     </row>
   </sheetData>
@@ -1021,19 +1080,19 @@
           <x14:formula1>
             <xm:f>excel_data!$B$3:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>H8:H16</xm:sqref>
+          <xm:sqref>H15:H16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>excel_data!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D25</xm:sqref>
+          <xm:sqref>D19:D25 D2:D13 D15:D16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>excel_data!$B$3:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H7</xm:sqref>
+          <xm:sqref>H2:H13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1045,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1055,8 +1114,8 @@
     <col min="2" max="2" width="6.1796875" customWidth="1"/>
     <col min="3" max="3" width="19.90625" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" customWidth="1"/>
     <col min="8" max="8" width="8.36328125" customWidth="1"/>
     <col min="9" max="9" width="7.90625" customWidth="1"/>
@@ -1085,16 +1144,16 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>13</v>
@@ -1111,13 +1170,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -1128,10 +1202,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1141,30 +1233,93 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1198,60 +1353,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" customWidth="1"/>
     <col min="4" max="4" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>42262</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>42263</v>
+      <c r="B3" s="6" t="e">
+        <f>Wee</f>
+        <v>#NAME?</v>
       </c>
       <c r="C3">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>180</v>
-      </c>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1271,15 +1416,15 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1287,7 +1432,7 @@
     </row>
     <row r="4" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1295,7 +1440,7 @@
     </row>
     <row r="5" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -1303,12 +1448,12 @@
     </row>
     <row r="6" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
